--- a/DATA/FLUX/listing.xlsx
+++ b/DATA/FLUX/listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\lincoln_scheer\git\co2_flux_summer_24\DATA\FLUX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lascheer/Documents/GitHub/co2_flux_summer_24/DATA/FLUX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DF83F4-48EC-4C61-92A4-48DCA986BA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F4C4A-D39D-1C4B-9A2E-865F7E5A4D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="58">
   <si>
     <t>FILENAME</t>
   </si>
@@ -172,14 +172,42 @@
   </si>
   <si>
     <t>STATIC_STOP_UNBURNED_B</t>
+  </si>
+  <si>
+    <t>DATALOG_CH2_07_26_24.TXT</t>
+  </si>
+  <si>
+    <t>DATALOG_CH3_07_26_24.TXT</t>
+  </si>
+  <si>
+    <t>07.26.2024</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CHAMBER NO</t>
+  </si>
+  <si>
+    <t>DATALOG_CH3_07_29_2024.TXT</t>
+  </si>
+  <si>
+    <t>07.29.2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -232,12 +260,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -245,10 +274,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -266,14 +295,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C025F7C7-990B-4B18-BC5D-D65E683427B8}" name="Table1" displayName="Table1" ref="A1:U14" totalsRowShown="0">
-  <autoFilter ref="A1:U14" xr:uid="{C025F7C7-990B-4B18-BC5D-D65E683427B8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M5">
-    <sortCondition ref="M1:M5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C025F7C7-990B-4B18-BC5D-D65E683427B8}" name="Table1" displayName="Table1" ref="A1:V17" totalsRowShown="0">
+  <autoFilter ref="A1:V17" xr:uid="{C025F7C7-990B-4B18-BC5D-D65E683427B8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N5">
+    <sortCondition ref="N1:N5"/>
   </sortState>
-  <tableColumns count="21">
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{472E3050-C5BE-4476-8C4C-E5AB4958DE18}" name="FILENAME"/>
     <tableColumn id="13" xr3:uid="{3DD9D3D2-D71E-43C6-B445-E39FCF561178}" name="FOLDER"/>
+    <tableColumn id="22" xr3:uid="{D20A285A-D828-1A46-B6DE-7DA669E09219}" name="CHAMBER NO"/>
     <tableColumn id="2" xr3:uid="{39B7B120-5B80-4FA4-88E4-F62E0DEA5BB6}" name="CHAMBER_TYPE"/>
     <tableColumn id="3" xr3:uid="{3994C07F-321D-4122-A41A-0A89AD31F7EF}" name="PAD_A"/>
     <tableColumn id="4" xr3:uid="{4633795E-4C14-4018-805E-F8743F7D09E9}" name="PAD_B"/>
@@ -561,37 +591,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="88.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.7109375" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="88.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.6640625" customWidth="1"/>
+    <col min="20" max="20" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,106 +629,109 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>45483</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>45493</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
       <c r="O2" t="s">
         <v>37</v>
       </c>
@@ -720,50 +753,53 @@
       <c r="U2" t="s">
         <v>37</v>
       </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>45483</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>45493</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
       <c r="O3" t="s">
         <v>37</v>
       </c>
@@ -785,50 +821,50 @@
       <c r="U3" t="s">
         <v>37</v>
       </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1">
         <v>45492</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>45493</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
       <c r="O4" t="s">
         <v>37</v>
       </c>
@@ -850,50 +886,50 @@
       <c r="U4" t="s">
         <v>37</v>
       </c>
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="1">
         <v>45492</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>45493</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
       <c r="O5" t="s">
         <v>37</v>
       </c>
@@ -915,50 +951,53 @@
       <c r="U5" t="s">
         <v>37</v>
       </c>
+      <c r="V5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45485</v>
       </c>
       <c r="I6" s="1">
         <v>45485</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1">
+        <v>45485</v>
+      </c>
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
       <c r="O6" t="s">
         <v>37</v>
       </c>
@@ -980,50 +1019,53 @@
       <c r="U6" t="s">
         <v>37</v>
       </c>
+      <c r="V6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>17</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45490</v>
       </c>
       <c r="I7" s="1">
         <v>45490</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1">
+        <v>45490</v>
+      </c>
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
         <v>22</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
       <c r="O7" t="s">
         <v>37</v>
       </c>
@@ -1045,50 +1087,53 @@
       <c r="U7" t="s">
         <v>37</v>
       </c>
+      <c r="V7" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>17</v>
-      </c>
-      <c r="H8" s="1">
-        <v>45492</v>
       </c>
       <c r="I8" s="1">
         <v>45492</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
       <c r="O8" t="s">
         <v>37</v>
       </c>
@@ -1110,20 +1155,20 @@
       <c r="U8" t="s">
         <v>37</v>
       </c>
+      <c r="V8" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
@@ -1133,44 +1178,44 @@
       <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="3">
         <v>45492.449305555558</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45492.477777777778</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45492.449305555558</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>45492.477777777778</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
       <c r="E10" t="s">
         <v>37</v>
       </c>
@@ -1180,56 +1225,56 @@
       <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="3">
         <v>45490.404861111114</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>45490.458333333336</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>45490.446527777778</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>45490.458333333336</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>45490.404861111114</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>45490.421527777777</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>45490.42291666667</v>
       </c>
-      <c r="U10" s="4">
+      <c r="V10" s="4">
         <v>45490.436805555553</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
@@ -1239,74 +1284,77 @@
       <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="3">
         <v>45485.452777777777</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>45485.467361111114</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>45485.452777777777</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>45485.467361111114</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>17</v>
-      </c>
-      <c r="H12" s="1">
-        <v>45485</v>
       </c>
       <c r="I12" s="1">
         <v>45485</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1">
+        <v>45485</v>
+      </c>
+      <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
         <v>22</v>
       </c>
-      <c r="N12" t="s">
-        <v>37</v>
-      </c>
       <c r="O12" t="s">
         <v>37</v>
       </c>
@@ -1328,50 +1376,53 @@
       <c r="U12" t="s">
         <v>37</v>
       </c>
+      <c r="V12" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>17</v>
-      </c>
-      <c r="H13" s="1">
-        <v>45483</v>
       </c>
       <c r="I13" s="1">
         <v>45483</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1">
+        <v>45483</v>
+      </c>
+      <c r="K13" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
         <v>22</v>
       </c>
-      <c r="N13" t="s">
-        <v>37</v>
-      </c>
       <c r="O13" t="s">
         <v>37</v>
       </c>
@@ -1393,20 +1444,20 @@
       <c r="U13" t="s">
         <v>37</v>
       </c>
+      <c r="V13" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
       <c r="E14" t="s">
         <v>37</v>
       </c>
@@ -1416,29 +1467,152 @@
       <c r="G14" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="3">
         <v>45483.385416666664</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>45483.411111111112</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>45483.385416666664</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>45483.411111111112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45498</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45498</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45498</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45499</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45498</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45502</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/FLUX/listing.xlsx
+++ b/DATA/FLUX/listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lascheer/Documents/GitHub/co2_flux_summer_24/DATA/FLUX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\lincoln_scheer\git\co2_flux_summer_24\DATA\FLUX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F4C4A-D39D-1C4B-9A2E-865F7E5A4D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C4B3F-E400-498F-8FD8-9410DE28125C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="61">
   <si>
     <t>FILENAME</t>
   </si>
@@ -199,15 +199,23 @@
   </si>
   <si>
     <t>07.29.2024</t>
+  </si>
+  <si>
+    <t>08.02.2024</t>
+  </si>
+  <si>
+    <t>DATALOG_CH3_08_2_24.TXT</t>
+  </si>
+  <si>
+    <t>DATALOG_CH2_08_02_24_test.TXT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -260,13 +268,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -274,10 +281,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -295,8 +302,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C025F7C7-990B-4B18-BC5D-D65E683427B8}" name="Table1" displayName="Table1" ref="A1:V17" totalsRowShown="0">
-  <autoFilter ref="A1:V17" xr:uid="{C025F7C7-990B-4B18-BC5D-D65E683427B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C025F7C7-990B-4B18-BC5D-D65E683427B8}" name="Table1" displayName="Table1" ref="A1:V19" totalsRowShown="0">
+  <autoFilter ref="A1:V19" xr:uid="{C025F7C7-990B-4B18-BC5D-D65E683427B8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N5">
     <sortCondition ref="N1:N5"/>
   </sortState>
@@ -591,37 +598,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="88.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.6640625" customWidth="1"/>
-    <col min="20" max="20" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.7109375" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +696,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -757,7 +764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -825,7 +832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -890,7 +897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -955,7 +962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1023,7 +1030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1091,7 +1098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1159,7 +1166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>45492.477777777778</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1265,7 +1272,7 @@
         <v>45490.436805555553</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>45485.467361111114</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1380,7 +1387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1448,7 +1455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1495,7 +1502,7 @@
         <v>45483.411111111112</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1517,10 +1524,10 @@
       <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="1">
         <v>45498</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="1">
         <v>45498</v>
       </c>
       <c r="K15" t="s">
@@ -1533,7 +1540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1558,10 +1565,10 @@
       <c r="H16" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="1">
         <v>45498</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="1">
         <v>45499</v>
       </c>
       <c r="K16" t="s">
@@ -1574,7 +1581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1599,10 +1606,10 @@
       <c r="H17" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="1">
         <v>45498</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="1">
         <v>45502</v>
       </c>
       <c r="K17" t="s">
@@ -1613,6 +1620,73 @@
       </c>
       <c r="M17" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45505</v>
+      </c>
+      <c r="J18" s="1">
+        <v>45506</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45506</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45506</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
